--- a/datos.xlsx
+++ b/datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefeinformatica\Documents\Varios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefeinformatica\Documents\Varios\proyecto_ventas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A0DCC5-496B-494B-BEA8-2B41DE0417A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6E9C13-2747-4DCB-8CD7-EDC1771356EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12645" xr2:uid="{996390AF-849D-4C6E-85EF-0B516BD58A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{996390AF-849D-4C6E-85EF-0B516BD58A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="clientes" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Cédula</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>P002</t>
+  </si>
+  <si>
+    <t>cedula</t>
   </si>
 </sst>
 </file>
@@ -445,17 +445,17 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>1234567</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>9876543</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -494,21 +494,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -516,10 +516,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>5</v>
